--- a/Course Statistics.xlsx
+++ b/Course Statistics.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dzmitry_Varabei\javascript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dzmitry_Varabei\javascript\front-end-course-dzmitry-varabei\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="12645" windowHeight="7650"/>
+    <workbookView xWindow="12120" yWindow="0" windowWidth="12645" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Front-end Lab #1</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Front-end Lab #4</t>
+  </si>
+  <si>
+    <t>Front-end Lab #5</t>
   </si>
 </sst>
 </file>
@@ -121,7 +124,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -140,8 +143,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>Статистика</a:t>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Стастистика</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -161,7 +164,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -252,11 +255,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -270,7 +275,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -300,9 +304,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Front-end Lab #1</c:v>
                 </c:pt>
@@ -314,16 +318,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Front-end Lab #4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front-end Lab #5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>129</c:v>
                 </c:pt>
@@ -335,6 +342,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,11 +412,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -420,7 +432,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -450,9 +461,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Front-end Lab #1</c:v>
                 </c:pt>
@@ -464,16 +475,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Front-end Lab #4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front-end Lab #5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>22</c:v>
                 </c:pt>
@@ -485,6 +499,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -552,11 +569,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="lt1">
                         <a:lumMod val="85000"/>
@@ -570,7 +589,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -600,9 +618,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Front-end Lab #1</c:v>
                 </c:pt>
@@ -614,16 +632,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Front-end Lab #4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Front-end Lab #5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -632,13 +653,15 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -648,11 +671,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="85434384"/>
-        <c:axId val="85434944"/>
+        <c:axId val="264344608"/>
+        <c:axId val="264342928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85434384"/>
+        <c:axId val="264344608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,7 +703,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -694,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85434944"/>
+        <c:crossAx val="264342928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -702,7 +725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85434944"/>
+        <c:axId val="264342928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +761,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="85000"/>
@@ -752,7 +775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85434384"/>
+        <c:crossAx val="264344608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -780,7 +803,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -830,7 +853,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400" baseline="0"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1384,19 +1407,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1076324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:colOff>553048</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1677,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
@@ -1689,9 +1712,10 @@
     <col min="2" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,8 +1728,11 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1721,8 +1748,11 @@
       <c r="E2">
         <v>369</v>
       </c>
+      <c r="F2">
+        <v>504</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1738,8 +1768,11 @@
       <c r="E3">
         <v>26</v>
       </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1751,6 +1784,9 @@
       </c>
       <c r="D4">
         <v>14</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Course Statistics.xlsx
+++ b/Course Statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="0" windowWidth="12645" windowHeight="7650"/>
+    <workbookView xWindow="14640" yWindow="0" windowWidth="12645" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
                   <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>504</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,11 +671,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="264344608"/>
-        <c:axId val="264342928"/>
+        <c:axId val="252020208"/>
+        <c:axId val="252020768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="264344608"/>
+        <c:axId val="252020208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264342928"/>
+        <c:crossAx val="252020768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -725,7 +725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="264342928"/>
+        <c:axId val="252020768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="264344608"/>
+        <c:crossAx val="252020208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1703,7 +1703,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1749,7 @@
         <v>369</v>
       </c>
       <c r="F2">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
